--- a/data_Generic/data_ProjectTemplate/Windfarms_ProjectTemplate.xlsx
+++ b/data_Generic/data_ProjectTemplate/Windfarms_ProjectTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\Zero_ProjectTemplate\data_ProjectTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\Brainport\data_Ekkersrijt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6935B52-BC86-4411-8994-E4A9A1596DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD559E6-FA98-4D5D-BA42-04CB9273FCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>polygon</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>initially_active</t>
+  </si>
+  <si>
+    <t>SLIDER_WF</t>
   </si>
 </sst>
 </file>
@@ -915,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04450E06-EF4A-46B9-A341-13D60EC2E1DA}">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -999,6 +1002,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>5000</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>5000</v>
+      </c>
+      <c r="P2">
+        <v>52</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/data_Generic/data_ProjectTemplate/Windfarms_ProjectTemplate.xlsx
+++ b/data_Generic/data_ProjectTemplate/Windfarms_ProjectTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\Brainport\data_Ekkersrijt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\Zero_ProjectTemplate\data_ProjectTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD559E6-FA98-4D5D-BA42-04CB9273FCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772A94D8-EA2B-426B-86B9-FD58BB7C8804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,9 +535,6 @@
     <t>capacity_electric_kw</t>
   </si>
   <si>
-    <t>trafo_id</t>
-  </si>
-  <si>
     <t>city</t>
   </si>
   <si>
@@ -569,6 +566,9 @@
   </si>
   <si>
     <t>SLIDER_WF</t>
+  </si>
+  <si>
+    <t>gridnode_id</t>
   </si>
 </sst>
 </file>
@@ -921,7 +921,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -948,37 +948,37 @@
   <sheetData>
     <row r="1" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>6</v>
@@ -1004,13 +1004,13 @@
     </row>
     <row r="2" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" t="b">
         <v>1</v>

--- a/data_Generic/data_ProjectTemplate/Windfarms_ProjectTemplate.xlsx
+++ b/data_Generic/data_ProjectTemplate/Windfarms_ProjectTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AteHe\Desktop\Modellen\Zero_ProjectTemplate\data_ProjectTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772A94D8-EA2B-426B-86B9-FD58BB7C8804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB48DBC-65E7-4C03-8FCE-4CFD2770A53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39540" yWindow="1140" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="windfarms" sheetId="2" r:id="rId1"/>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>polygon</t>
   </si>
@@ -563,9 +563,6 @@
   </si>
   <si>
     <t>initially_active</t>
-  </si>
-  <si>
-    <t>SLIDER_WF</t>
   </si>
   <si>
     <t>gridnode_id</t>
@@ -918,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04450E06-EF4A-46B9-A341-13D60EC2E1DA}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -975,7 +972,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>16</v>
@@ -1000,38 +997,6 @@
       </c>
       <c r="R1" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>5000</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>5000</v>
-      </c>
-      <c r="P2">
-        <v>52</v>
-      </c>
-      <c r="Q2">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
